--- a/Process Dataframes/Jokes.xlsx
+++ b/Process Dataframes/Jokes.xlsx
@@ -191,7 +191,7 @@
     <t>What do computers eat for a snack?. Microchips!</t>
   </si>
   <si>
-    <t xml:space="preserve">Tengo un pan que habla. ¿como que un pan que habla?. "lo introduce en agua", mira! el pan esta blando!.
+    <t xml:space="preserve">Tengo un pan que habla. ¿como que un pan que habla?. "lo introduce en agua", mira! el pan está blando!.
 </t>
   </si>
   <si>
